--- a/teaching/traditional_assets/database/data/pakistan/pakistan_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_insurance_general.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.588</v>
+        <v>-0.534</v>
       </c>
       <c r="G2">
-        <v>-2.307692307692308</v>
+        <v>-0.34375</v>
       </c>
       <c r="H2">
-        <v>-2.307692307692308</v>
+        <v>-0.34375</v>
       </c>
       <c r="I2">
-        <v>-1.115384615384615</v>
+        <v>0.0625</v>
       </c>
       <c r="J2">
-        <v>-1.115384615384615</v>
+        <v>0.03125</v>
       </c>
       <c r="K2">
-        <v>-0.047</v>
+        <v>-0.001</v>
       </c>
       <c r="L2">
-        <v>-1.807692307692308</v>
+        <v>-0.03125</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,31 +633,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="V2">
-        <v>0.008583690987124463</v>
+        <v>0.002857142857142858</v>
       </c>
       <c r="W2">
-        <v>0.5875</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="X2">
-        <v>0.08140082900788637</v>
+        <v>0.08213270210227022</v>
       </c>
       <c r="Y2">
-        <v>0.5060991709921137</v>
+        <v>-0.07312369309326121</v>
       </c>
       <c r="Z2">
-        <v>-0.2988505747126436</v>
+        <v>-0.2831858407079646</v>
       </c>
       <c r="AA2">
-        <v>0.3333333333333333</v>
+        <v>-0.008849557522123894</v>
       </c>
       <c r="AB2">
-        <v>0.08140082900788637</v>
+        <v>0.08213270210227022</v>
       </c>
       <c r="AC2">
-        <v>0.2519325043254469</v>
+        <v>-0.09098225962439412</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>-0</v>
       </c>
       <c r="AJ2">
-        <v>-0.008658008658008658</v>
+        <v>-0.002865329512893983</v>
       </c>
       <c r="AK2">
-        <v>0.01769911504424779</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.07142857142857142</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.588</v>
+        <v>-0.534</v>
       </c>
       <c r="G3">
-        <v>-2.307692307692308</v>
+        <v>-0.34375</v>
       </c>
       <c r="H3">
-        <v>-2.307692307692308</v>
+        <v>-0.34375</v>
       </c>
       <c r="I3">
-        <v>-1.115384615384615</v>
+        <v>0.0625</v>
       </c>
       <c r="J3">
-        <v>-1.115384615384615</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
-        <v>-0.047</v>
+        <v>-0.001</v>
       </c>
       <c r="L3">
-        <v>-1.807692307692308</v>
+        <v>-0.03125</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="V3">
-        <v>0.008583690987124463</v>
+        <v>0.002857142857142858</v>
       </c>
       <c r="W3">
-        <v>0.5875</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="X3">
-        <v>0.08140082900788637</v>
+        <v>0.08213270210227022</v>
       </c>
       <c r="Y3">
-        <v>0.5060991709921137</v>
+        <v>-0.07312369309326121</v>
       </c>
       <c r="Z3">
-        <v>-0.2988505747126436</v>
+        <v>-0.2831858407079646</v>
       </c>
       <c r="AA3">
-        <v>0.3333333333333333</v>
+        <v>-0.008849557522123894</v>
       </c>
       <c r="AB3">
-        <v>0.08140082900788637</v>
+        <v>0.08213270210227022</v>
       </c>
       <c r="AC3">
-        <v>0.2519325043254469</v>
+        <v>-0.09098225962439412</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>-0.008658008658008658</v>
+        <v>-0.002865329512893983</v>
       </c>
       <c r="AK3">
-        <v>0.01769911504424779</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.07142857142857142</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
